--- a/spc/results/t01/M_0.20_k_0.05/omp_GAUSSIAN_30dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.20_k_0.05/omp_GAUSSIAN_30dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,586 +880,6 @@
         <v>143.219814638681</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>141.6032505967238</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>140.3216161787861</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>139.1116542308237</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>137.8280881776031</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>136.7021712587491</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>135.3526230252025</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>134.1398504703082</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>132.8889537131245</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>131.6248962979192</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>130.363663203548</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>128.9836421953533</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>127.8620808015186</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>126.8032791973038</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>125.7390987964513</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>124.7158955119735</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>123.6634482315627</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>122.5959473722605</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>121.5131722609838</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>120.5608008059158</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>119.6371446503961</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>118.4993405816736</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>117.5514314699613</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>116.4736607060453</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>115.4270772105038</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>114.5450024295741</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113.5460461715514</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>112.5992106517065</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>111.6246873120462</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>110.6233986636338</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>109.6444180899507</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>108.5408542331182</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>107.4237012115838</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>106.3413733365337</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>105.47529314672</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>104.5259433356196</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>103.6825399580005</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>102.7364736486686</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>101.946189797516</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>101.1720851201116</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>100.4046220725214</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>99.57688869126127</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>98.82313989851146</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>97.93592608775546</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>97.14264659642281</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>96.30989704937902</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>95.57188602923685</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>94.69855233767876</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>93.92011790267705</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>93.10757981510466</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>92.37438153995829</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>91.50752235801473</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>90.71537342154929</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>89.91688450430836</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>89.24385588566173</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>88.37295772196498</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>87.59981041694654</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>86.86615872477995</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>86.21896619929265</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>85.60445167670916</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>84.84743953225383</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>84.01009181771171</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>83.41809747452838</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>82.59713043125888</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>81.99471447410085</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>81.34233352023776</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>80.67811766386549</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>80.05876510478458</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>79.42581619488357</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>78.88862103357854</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>78.33520917801552</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>77.67829501643956</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>77.15469526379971</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>76.61122334541619</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>76.04440230721922</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>75.46320033306803</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>74.92730677243615</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>74.37137260411085</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>73.83851545973464</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>73.32321411765894</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>72.67789527389738</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>72.05730571808705</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>71.62172069523716</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>71.09574135120326</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>70.55651902490582</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>69.9783332737609</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>69.38447024215051</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>68.71819194219515</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>68.11027989498854</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>67.52746230991424</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>66.93988719008395</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>66.47723806278701</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>66.061743019145</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>65.65187671276126</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>65.15401383805452</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>64.65830898893053</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>64.18458253007563</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>63.69067904140437</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>63.19666810702714</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>62.75004093757484</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>62.27472005815711</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>61.80346963829481</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>61.39107078195159</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>60.96214458001036</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>60.53224468698244</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>60.13273191416329</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>59.73288996881764</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>59.28477130226975</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>58.72282825412017</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>58.28160914325831</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>57.91589382008653</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>57.56662874763006</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>57.17240365160917</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>56.77906165221094</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>56.40254687452246</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>56.01284609436706</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>55.5939592774323</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
